--- a/table/테이블 정의서.xlsx
+++ b/table/테이블 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smsoft\Downloads\kakao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smsoft\Downloads\kakao\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
   <si>
     <t>PK</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JOIN_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -294,27 +290,239 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>KAKAO_READ_USERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATEAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAKAO_CHATS.CHAT_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컨텐츠 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"kakao", "local"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "탈퇴"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가한 유저 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "차단", "3": "삭제"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "삭제"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "개인", "2": "단체"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "탈퇴"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "삭제"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAKAO_FILES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGINAL_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(260)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGINAL_EXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_AT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(260)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KAKAO_JOIN_USERS.JOIN_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAKAO_READ_USERS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAT_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATEAT</t>
+    <t>파일 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 확장자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축된 파일 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAKAO_USERS.USER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "메시지", "2": "파일", "3": "입장", "4": "퇴장"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -322,227 +530,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KAKAO_CHATS.CHAT_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 사진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성 날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>별명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
+    <t xml:space="preserve"> 유저 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>방 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 아아디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">컨텐츠 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가 아아디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"kakao", "local"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "보통", "2": "탈퇴"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가한 유저 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "보통", "2": "차단", "3": "삭제"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "보통", "2": "삭제"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "개인", "2": "단체"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "보통", "2": "탈퇴"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "보통", "2": "삭제"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "메시지", "2": "파일", "3": "입장", "4": "퇴장", "5": "탈퇴"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAKAO_FILES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIGINAL_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(260)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIGINAL_EXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_AT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(260)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 확장자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축된 파일 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성 날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAKAO_USERS.USER_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -965,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -979,10 +975,10 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -996,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1010,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1024,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1038,10 +1034,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1055,7 +1051,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1069,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1086,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1106,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1126,7 +1122,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1140,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1154,10 +1150,10 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1171,7 +1167,7 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1185,7 +1181,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1202,7 +1198,7 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1216,7 +1212,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1230,10 +1226,10 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1247,10 +1243,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1264,7 +1260,7 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1278,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1289,13 +1285,16 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1303,19 +1302,19 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1323,19 +1322,16 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1346,13 +1342,10 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1360,307 +1353,313 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G46" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
         <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" t="s">
         <v>113</v>
-      </c>
-      <c r="G48" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
